--- a/biology/Zoologie/Conothele_fragaria/Conothele_fragaria.xlsx
+++ b/biology/Zoologie/Conothele_fragaria/Conothele_fragaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conothele fragaria est une espèce d'araignées mygalomorphes de la famille des Halonoproctidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conothele fragaria est une espèce d'araignées mygalomorphes de la famille des Halonoproctidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 8 à 10 mm et les femelles de 10 à 12 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 8 à 10 mm et les femelles de 10 à 12 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pachylomerus fragaria par Dönitz en 1887. Elle est placée dans le genre Ummidia par Yaginuma en 1960[3], dans le genre Pachylomerides par Strand en 1934[4] puis dans le genre Conothele par Haupt en 2006[5].
-Pachylomerus granulosus[6] a été placée en synonymie par Yaginuma en 1962[7].
-Conothele doenitzi[8], Pachyomerns midzusawai[9], Pachylomerus mirandus[9] et Pachylomerus nawai[9] ont été placées en synonymie par Ono et Ogata en 2018[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pachylomerus fragaria par Dönitz en 1887. Elle est placée dans le genre Ummidia par Yaginuma en 1960, dans le genre Pachylomerides par Strand en 1934 puis dans le genre Conothele par Haupt en 2006.
+Pachylomerus granulosus a été placée en synonymie par Yaginuma en 1962.
+Conothele doenitzi, Pachyomerns midzusawai, Pachylomerus mirandus et Pachylomerus nawai ont été placées en synonymie par Ono et Ogata en 2018.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dönitz, 1887 : « Über die Lebensweise zweier Vogelspinnen aus Japan. » Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1887, p. 8-10 (texte intégral).</t>
         </is>
